--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA000E87-1D78-4353-BBE4-F687146EAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD41DA-66CB-452D-9E7B-0D01371706AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>##type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -399,6 +411,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD41DA-66CB-452D-9E7B-0D01371706AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69658588-5257-4588-89EF-413500354A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +396,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,7 +425,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -421,7 +433,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -429,7 +441,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69658588-5257-4588-89EF-413500354A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53559FF2-C2F4-4156-A3E2-26F29CAC2D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,46 @@
   </si>
   <si>
     <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +125,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -111,8 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -411,8 +465,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -422,29 +482,81 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53559FF2-C2F4-4156-A3E2-26F29CAC2D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4B163-5CA2-40A2-AE5C-229A37C9695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,12 +450,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -489,7 +489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B4B163-5CA2-40A2-AE5C-229A37C9695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E7CFD-E0D3-49E7-9E8B-3237277D295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,26 @@
   </si>
   <si>
     <t>卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -472,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -489,7 +509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -503,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -517,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -531,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -545,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -557,6 +577,34 @@
       </c>
       <c r="E7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E7CFD-E0D3-49E7-9E8B-3237277D295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBBA85-7EC8-45B4-865D-AB6B69C213ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -488,11 +496,14 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -505,11 +516,14 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -519,11 +533,11 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -533,11 +547,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -547,11 +561,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -561,11 +575,11 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -575,11 +589,11 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -589,11 +603,11 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -603,7 +617,7 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>

--- a/Config/Datas/CardDatas/CardData.xlsx
+++ b/Config/Datas/CardDatas/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBBA85-7EC8-45B4-865D-AB6B69C213ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368AF794-41E9-48DC-A2B8-6058A1FF57D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>CardTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一颗树莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金闪闪！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有抽卡瘾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,15 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -502,8 +532,12 @@
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,8 +556,11 @@
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -536,8 +573,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -550,8 +590,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -564,8 +607,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -578,8 +624,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -592,8 +641,11 @@
       <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -607,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>23</v>
       </c>
